--- a/Documentation/TestCases.xlsx
+++ b/Documentation/TestCases.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sravya\Spring2019\GDP11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531500\Desktop\gdp2\Codeword-GDPII\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51EACD05-BFA6-4566-9378-5DCA73CDDDC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F7583B-5B9B-4F0F-B380-96C90B164EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{5402E3D0-D184-4E2E-A5A0-A5D1F3223883}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Test Case Scenario</t>
   </si>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C0CA35-799D-43AB-AE64-D87717DCF37F}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="84" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,6 +759,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
